--- a/data/Firmen/creators/2025-01-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-01-01/Daily_Motivations.xlsx
@@ -466,8 +466,12 @@
           <t>sleep</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -480,8 +484,12 @@
           <t>activity</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -494,8 +502,12 @@
           <t>weekly_activity</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -508,8 +520,12 @@
           <t>sleep</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,8 +538,12 @@
           <t>activity</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -536,8 +556,12 @@
           <t>weekly_activity</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -550,8 +574,12 @@
           <t>sleep</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -564,8 +592,12 @@
           <t>activity</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -578,8 +610,12 @@
           <t>weekly_activity</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">

--- a/data/Firmen/creators/2025-01-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-01-01/Daily_Motivations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -476,7 +476,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-01-18</t>
+          <t>2025-01-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -530,7 +530,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -548,7 +548,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -566,7 +566,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -584,7 +584,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -602,7 +602,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-01-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-01-21</t>
+          <t>2025-01-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -656,18 +656,936 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2025-01-04</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-01-07</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-01-08</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-01-09</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C31" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C34" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C37" t="b">
+        <v>0</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C40" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="b">
+        <v>0</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C48" t="b">
+        <v>1</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C50" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C51" t="b">
+        <v>1</v>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="b">
+        <v>1</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C54" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C56" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C57" t="b">
+        <v>1</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C59" t="b">
+        <v>1</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C61" t="b">
+        <v>0</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>2025-01-21</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>weekly_activity</t>
-        </is>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>activity</t>
+        </is>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>weekly_activity</t>
+        </is>
+      </c>
+      <c r="C64" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" t="b">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/creators/2025-01-01/Daily_Motivations.xlsx
+++ b/data/Firmen/creators/2025-01-01/Daily_Motivations.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="C19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="C22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="C29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="C32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="C35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="C44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1331,10 +1331,10 @@
         </is>
       </c>
       <c r="C50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="C53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="C57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -1583,10 +1583,10 @@
         </is>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
